--- a/Sankey Data EUR Min 10.xlsx
+++ b/Sankey Data EUR Min 10.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Raw" sheetId="2" r:id="rId3"/>
     <sheet name="Tours" sheetId="3" r:id="rId5"/>
     <sheet name="PlayerNames" sheetId="4" r:id="rId6"/>
+    <sheet name="RawStr" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="720">
   <si>
     <t>2015</t>
   </si>
@@ -34,6 +35,1653 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>TourName</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KFT</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>WGC</t>
+  </si>
+  <si>
+    <t>Scott Hend</t>
+  </si>
+  <si>
+    <t>Graeme Storm</t>
+  </si>
+  <si>
+    <t>Lee Westwood</t>
+  </si>
+  <si>
+    <t>Michael Campbell</t>
+  </si>
+  <si>
+    <t>Stephen Gallacher</t>
+  </si>
+  <si>
+    <t>David Howell</t>
+  </si>
+  <si>
+    <t>Thomas Bjorn</t>
+  </si>
+  <si>
+    <t>Raphael Jacquelin</t>
+  </si>
+  <si>
+    <t>Soren Kjeldsen</t>
+  </si>
+  <si>
+    <t>Richard Bland</t>
+  </si>
+  <si>
+    <t>Lee Slattery</t>
+  </si>
+  <si>
+    <t>David Drysdale</t>
+  </si>
+  <si>
+    <t>Nicolas Colsaerts</t>
+  </si>
+  <si>
+    <t>Edoardo Molinari</t>
+  </si>
+  <si>
+    <t>Jamie Donaldson</t>
+  </si>
+  <si>
+    <t>Richard McEvoy</t>
+  </si>
+  <si>
+    <t>Wade Ormsby</t>
+  </si>
+  <si>
+    <t>Marc Warren</t>
+  </si>
+  <si>
+    <t>Alvaro Quiros</t>
+  </si>
+  <si>
+    <t>Robert Rock</t>
+  </si>
+  <si>
+    <t>Justin Walters</t>
+  </si>
+  <si>
+    <t>Martin Kaymer</t>
+  </si>
+  <si>
+    <t>Oliver Wilson</t>
+  </si>
+  <si>
+    <t>Ricardo Santos</t>
+  </si>
+  <si>
+    <t>Pablo Larrazabal</t>
+  </si>
+  <si>
+    <t>Mikko Korhonen</t>
+  </si>
+  <si>
+    <t>Ross Fisher</t>
+  </si>
+  <si>
+    <t>Rikard Karlberg</t>
+  </si>
+  <si>
+    <t>Wil Besseling</t>
+  </si>
+  <si>
+    <t>Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t>Pedro Figueiredo</t>
+  </si>
+  <si>
+    <t>Lorenzo Gagli</t>
+  </si>
+  <si>
+    <t>Ben Evans</t>
+  </si>
+  <si>
+    <t>Joost Luiten</t>
+  </si>
+  <si>
+    <t>Julien Guerrier</t>
+  </si>
+  <si>
+    <t>Niklas Lemke</t>
+  </si>
+  <si>
+    <t>Oliver Fisher</t>
+  </si>
+  <si>
+    <t>Justin Harding</t>
+  </si>
+  <si>
+    <t>James Morrison</t>
+  </si>
+  <si>
+    <t>David Horsey</t>
+  </si>
+  <si>
+    <t>Richie Ramsay</t>
+  </si>
+  <si>
+    <t>Scott Jamieson</t>
+  </si>
+  <si>
+    <t>Alejandro Canizares</t>
+  </si>
+  <si>
+    <t>Wu Ashun</t>
+  </si>
+  <si>
+    <t>Ryan Fox</t>
+  </si>
+  <si>
+    <t>Ross McGowan</t>
+  </si>
+  <si>
+    <t>Andrea Pavan</t>
+  </si>
+  <si>
+    <t>Benjamin Hebert</t>
+  </si>
+  <si>
+    <t>Sebastian Garcia Rodriguez</t>
+  </si>
+  <si>
+    <t>Maximilian Kieffer</t>
+  </si>
+  <si>
+    <t>Paul Waring</t>
+  </si>
+  <si>
+    <t>David Coupland</t>
+  </si>
+  <si>
+    <t>Joel Sjoholm</t>
+  </si>
+  <si>
+    <t>Gavin Green</t>
+  </si>
+  <si>
+    <t>Daan Huizing</t>
+  </si>
+  <si>
+    <t>Damien Perrier</t>
+  </si>
+  <si>
+    <t>Jason Scrivener</t>
+  </si>
+  <si>
+    <t>Louis de Jager</t>
+  </si>
+  <si>
+    <t>Nacho Elvira</t>
+  </si>
+  <si>
+    <t>Nino Bertasio</t>
+  </si>
+  <si>
+    <t>Tapio Pulkkanen</t>
+  </si>
+  <si>
+    <t>Sihwan Kim</t>
+  </si>
+  <si>
+    <t>Oliver Farr</t>
+  </si>
+  <si>
+    <t>Matthew Baldwin</t>
+  </si>
+  <si>
+    <t>Darius Van Driel</t>
+  </si>
+  <si>
+    <t>Thorbjorn Olesen</t>
+  </si>
+  <si>
+    <t>Masahiro Kawamura</t>
+  </si>
+  <si>
+    <t>Jonathan Caldwell</t>
+  </si>
+  <si>
+    <t>Dale Whitnell</t>
+  </si>
+  <si>
+    <t>Carlos Pigem</t>
+  </si>
+  <si>
+    <t>Thomas Pieters</t>
+  </si>
+  <si>
+    <t>Jorge Campillo</t>
+  </si>
+  <si>
+    <t>Kalle Samooja</t>
+  </si>
+  <si>
+    <t>Thomas Detry</t>
+  </si>
+  <si>
+    <t>Adrian Meronk</t>
+  </si>
+  <si>
+    <t>Joachim B Hansen</t>
+  </si>
+  <si>
+    <t>Dean Burmester</t>
+  </si>
+  <si>
+    <t>Scott Vincent</t>
+  </si>
+  <si>
+    <t>Alexander Bjork</t>
+  </si>
+  <si>
+    <t>Joakim Lagergren</t>
+  </si>
+  <si>
+    <t>David Law</t>
+  </si>
+  <si>
+    <t>Adrien Saddier</t>
+  </si>
+  <si>
+    <t>Laurie Canter</t>
+  </si>
+  <si>
+    <t>Chris Paisley</t>
+  </si>
+  <si>
+    <t>Alexander Levy</t>
+  </si>
+  <si>
+    <t>Adrian Otaegui</t>
+  </si>
+  <si>
+    <t>Francesco Laporta</t>
+  </si>
+  <si>
+    <t>Eddie Pepperell</t>
+  </si>
+  <si>
+    <t>Jack Senior</t>
+  </si>
+  <si>
+    <t>Bryce Easton</t>
+  </si>
+  <si>
+    <t>Matthew Southgate</t>
+  </si>
+  <si>
+    <t>Brandon Stone</t>
+  </si>
+  <si>
+    <t>Haotong Li</t>
+  </si>
+  <si>
+    <t>Andy Sullivan</t>
+  </si>
+  <si>
+    <t>Aaron Cockerill</t>
+  </si>
+  <si>
+    <t>Jeff Winther</t>
+  </si>
+  <si>
+    <t>Steven Brown</t>
+  </si>
+  <si>
+    <t>Haydn Porteous</t>
+  </si>
+  <si>
+    <t>Garrick Porteous</t>
+  </si>
+  <si>
+    <t>Ben Stow</t>
+  </si>
+  <si>
+    <t>Grant Forrest</t>
+  </si>
+  <si>
+    <t>Sebastian Heisele</t>
+  </si>
+  <si>
+    <t>Renato Paratore</t>
+  </si>
+  <si>
+    <t>Romain Langasque</t>
+  </si>
+  <si>
+    <t>Minwoo Lee</t>
+  </si>
+  <si>
+    <t>Zander Lombard</t>
+  </si>
+  <si>
+    <t>Shubhankar Sharma</t>
+  </si>
+  <si>
+    <t>Jake Ian McLeod</t>
+  </si>
+  <si>
+    <t>Guido Migliozzi</t>
+  </si>
+  <si>
+    <t>Gavin Moynihan</t>
+  </si>
+  <si>
+    <t>Clement Sordet</t>
+  </si>
+  <si>
+    <t>Joel Stalter</t>
+  </si>
+  <si>
+    <t>Marcus Armitage</t>
+  </si>
+  <si>
+    <t>Lars Van Meijel</t>
+  </si>
+  <si>
+    <t>Julian Suri</t>
+  </si>
+  <si>
+    <t>Callum Shinkwin</t>
+  </si>
+  <si>
+    <t>Marcus Kinhult</t>
+  </si>
+  <si>
+    <t>Sebastian Soderberg</t>
+  </si>
+  <si>
+    <t>John Catlin</t>
+  </si>
+  <si>
+    <t>Aaron Rai</t>
+  </si>
+  <si>
+    <t>Jordan L Smith</t>
+  </si>
+  <si>
+    <t>Ashley Chesters</t>
+  </si>
+  <si>
+    <t>Antoine Rozner</t>
+  </si>
+  <si>
+    <t>Cormac Sharvin</t>
+  </si>
+  <si>
+    <t>Toby Tree</t>
+  </si>
+  <si>
+    <t>Sam Horsfield</t>
+  </si>
+  <si>
+    <t>Matthieu Pavon</t>
+  </si>
+  <si>
+    <t>Robin Sciot-Siegrist</t>
+  </si>
+  <si>
+    <t>Benjamin Henry Poke</t>
+  </si>
+  <si>
+    <t>Johannes Veerman</t>
+  </si>
+  <si>
+    <t>Matt Wallace</t>
+  </si>
+  <si>
+    <t>Robin Roussel</t>
+  </si>
+  <si>
+    <t>Ewen Ferguson</t>
+  </si>
+  <si>
+    <t>Connor Syme</t>
+  </si>
+  <si>
+    <t>Liam Johnston</t>
+  </si>
+  <si>
+    <t>Maverick Antcliff</t>
+  </si>
+  <si>
+    <t>Adri Arnaus</t>
+  </si>
+  <si>
+    <t>Robert MacIntyre</t>
+  </si>
+  <si>
+    <t>Nicolai Hojgaard</t>
+  </si>
+  <si>
+    <t>Sean Crocker</t>
+  </si>
+  <si>
+    <t>Sami Valimaki</t>
+  </si>
+  <si>
+    <t>Rasmus Hojgaard</t>
+  </si>
+  <si>
+    <t>Calum Hill(Nov1994)</t>
+  </si>
+  <si>
+    <t>Matthew Jordan</t>
+  </si>
+  <si>
+    <t>Wilco Nienaber</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>KFT</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>KFT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>KFT</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MAJ</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>ALP</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>WGC</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EPT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
   <si>
     <t>TourName</t>
@@ -549,7 +2197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -560,15 +2208,23 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,22 +2247,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -3523,102 +5179,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -3635,727 +5291,3664 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>27</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>35</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>40</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>47</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>48</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>55</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>56</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>57</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>59</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>60</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>61</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>62</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>63</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>64</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>65</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>66</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>67</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>68</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>69</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>70</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>71</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>72</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>73</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>75</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>76</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>77</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>78</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>79</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>80</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>81</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>82</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>83</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>84</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>85</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>86</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>87</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>88</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>89</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>90</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>91</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>92</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>93</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>94</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>95</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>96</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>97</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>98</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>99</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>100</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>101</v>
+        <v>650</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>102</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>103</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>104</v>
+        <v>653</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>105</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>106</v>
+        <v>655</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>107</v>
+        <v>656</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>108</v>
+        <v>657</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>109</v>
+        <v>658</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>110</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>111</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>112</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>113</v>
+        <v>662</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>114</v>
+        <v>663</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>115</v>
+        <v>664</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>116</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>117</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>118</v>
+        <v>667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>119</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>120</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>121</v>
+        <v>670</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>122</v>
+        <v>671</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>123</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>124</v>
+        <v>673</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>125</v>
+        <v>674</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>126</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>127</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>128</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>129</v>
+        <v>678</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>130</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>131</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>132</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>133</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>134</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>135</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>136</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>137</v>
+        <v>686</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>138</v>
+        <v>687</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>139</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>140</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>141</v>
+        <v>690</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>142</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>143</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>144</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>145</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>146</v>
+        <v>695</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>147</v>
+        <v>696</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>148</v>
+        <v>697</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>149</v>
+        <v>698</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>150</v>
+        <v>699</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>151</v>
+        <v>700</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>152</v>
+        <v>701</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>153</v>
+        <v>702</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>154</v>
+        <v>703</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>155</v>
+        <v>704</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>156</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>157</v>
+        <v>706</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>158</v>
+        <v>707</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>159</v>
+        <v>708</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>160</v>
+        <v>709</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>161</v>
+        <v>710</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>162</v>
+        <v>711</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>163</v>
+        <v>712</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>164</v>
+        <v>713</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>165</v>
+        <v>714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>166</v>
+        <v>715</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>167</v>
+        <v>716</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>168</v>
+        <v>717</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>169</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>170</v>
+        <v>719</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F146"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.62109375" customWidth="true"/>
+    <col min="2" max="2" width="5.62109375" customWidth="true"/>
+    <col min="3" max="3" width="5.62109375" customWidth="true"/>
+    <col min="4" max="4" width="5.62109375" customWidth="true"/>
+    <col min="5" max="5" width="5.62109375" customWidth="true"/>
+    <col min="6" max="6" width="5.16796875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
